--- a/data/raw_data_before_2020/2012/permits-issued-by-county-2012.xlsx
+++ b/data/raw_data_before_2020/2012/permits-issued-by-county-2012.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2012\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91489DEC-8044-419F-A2E5-3EF6518BD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14940" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$34</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -131,13 +151,22 @@
   </si>
   <si>
     <t>(Not Categorized)</t>
+  </si>
+  <si>
+    <t>North Ireland</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Obs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +179,11 @@
       <color theme="1"/>
       <name val="Courier"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -336,6 +370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,6 +380,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,9 +464,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,6 +516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,11 +708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -648,10 +720,11 @@
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="11.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,8 +746,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>2012</v>
       </c>
@@ -695,7 +771,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -716,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -737,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -758,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -779,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>11</v>
@@ -800,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -820,8 +896,11 @@
       <c r="G8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -842,7 +921,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -863,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -883,8 +962,11 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -904,8 +986,11 @@
       <c r="G12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -926,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -947,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>19</v>
@@ -968,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -989,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>21</v>
@@ -1010,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>22</v>
@@ -1031,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>23</v>
@@ -1052,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>24</v>
@@ -1073,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>25</v>
@@ -1094,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>26</v>
@@ -1115,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>27</v>
@@ -1136,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>28</v>
@@ -1157,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>29</v>
@@ -1178,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>30</v>
@@ -1199,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>31</v>
@@ -1220,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>32</v>
@@ -1240,8 +1325,11 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
         <v>33</v>
@@ -1261,8 +1349,11 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
         <v>34</v>
@@ -1283,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>35</v>
@@ -1304,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
         <v>36</v>
@@ -1325,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
         <v>37</v>
@@ -1346,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
         <v>38</v>
@@ -1366,8 +1457,13 @@
       <c r="G34" s="13">
         <v>0</v>
       </c>
+      <c r="H34" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/raw_data_before_2020/2012/permits-issued-by-county-2012.xlsx
+++ b/data/raw_data_before_2020/2012/permits-issued-by-county-2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91489DEC-8044-419F-A2E5-3EF6518BD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F707BB-BB98-4CBC-8F71-948136BF4A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
